--- a/Data/2005 STOP Summary.xlsx
+++ b/Data/2005 STOP Summary.xlsx
@@ -18885,7 +18885,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S199"/>
+  <dimension ref="A1:P199"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C16" activePane="bottomRight" state="frozen"/>
@@ -22903,7 +22903,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Z199"/>
+  <dimension ref="A1:W199"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C28" activePane="bottomRight" state="frozen"/>
@@ -28487,7 +28487,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y199"/>
+  <dimension ref="A1:V199"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="O34" activePane="bottomRight" state="frozen"/>
@@ -34096,7 +34096,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O199"/>
+  <dimension ref="A1:L199"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C16" activePane="bottomRight" state="frozen"/>
@@ -37202,7 +37202,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L199"/>
+  <dimension ref="A1:J199"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
       <pane xSplit="2" ySplit="4" topLeftCell="C47" activePane="bottomRight" state="frozen"/>

--- a/Data/2005 STOP Summary.xlsx
+++ b/Data/2005 STOP Summary.xlsx
@@ -2381,7 +2381,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BV21"/>
+  <dimension ref="A1:BV20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7053,13 +7053,6 @@
       </c>
       <c r="BV20" t="n">
         <v>884605.5</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>Plumas-Sierra County Fair (FY 04/05) DATA NOT AVAILABLE</t>
-        </is>
       </c>
     </row>
   </sheetData>
@@ -14357,7 +14350,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BT7"/>
+  <dimension ref="A1:BT6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -15170,667 +15163,660 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>16th DAA, California Mid-State Fair          DATA NOT AVAILABLE</t>
-        </is>
+          <t>31st DAA, Ventura County Fair</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>7154419</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0</v>
+      </c>
+      <c r="D4" t="n">
+        <v>2157972</v>
+      </c>
+      <c r="E4" t="n">
+        <v>9312391</v>
+      </c>
+      <c r="F4" t="n">
+        <v>40000</v>
+      </c>
+      <c r="G4" t="n">
+        <v>423882</v>
+      </c>
+      <c r="H4" t="n">
+        <v>1151398</v>
+      </c>
+      <c r="I4" t="n">
+        <v>31000</v>
+      </c>
+      <c r="J4" t="n">
+        <v>1705176</v>
+      </c>
+      <c r="K4" t="n">
+        <v>31508</v>
+      </c>
+      <c r="L4" t="n">
+        <v>23320</v>
+      </c>
+      <c r="M4" t="n">
+        <v>0</v>
+      </c>
+      <c r="N4" t="n">
+        <v>1604250</v>
+      </c>
+      <c r="O4" t="n">
+        <v>0</v>
+      </c>
+      <c r="P4" t="n">
+        <v>383181</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>0</v>
+      </c>
+      <c r="R4" t="n">
+        <v>1739744</v>
+      </c>
+      <c r="S4" t="n">
+        <v>-23552</v>
+      </c>
+      <c r="T4" t="n">
+        <v>60384</v>
+      </c>
+      <c r="U4" t="n">
+        <v>6706409</v>
+      </c>
+      <c r="V4" t="n">
+        <v>1176558</v>
+      </c>
+      <c r="W4" t="n">
+        <v>1626090</v>
+      </c>
+      <c r="X4" t="n">
+        <v>300400</v>
+      </c>
+      <c r="Y4" t="n">
+        <v>532440</v>
+      </c>
+      <c r="Z4" t="n">
+        <v>474222</v>
+      </c>
+      <c r="AA4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB4" t="n">
+        <v>144993</v>
+      </c>
+      <c r="AC4" t="n">
+        <v>265699</v>
+      </c>
+      <c r="AD4" t="n">
+        <v>45855</v>
+      </c>
+      <c r="AE4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF4" t="n">
+        <v>865115</v>
+      </c>
+      <c r="AG4" t="n">
+        <v>963243</v>
+      </c>
+      <c r="AH4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI4" t="n">
+        <v>44471</v>
+      </c>
+      <c r="AJ4" t="n">
+        <v>20631</v>
+      </c>
+      <c r="AK4" t="n">
+        <v>226</v>
+      </c>
+      <c r="AL4" t="n">
+        <v>758657</v>
+      </c>
+      <c r="AM4" t="n">
+        <v>4999</v>
+      </c>
+      <c r="AN4" t="n">
+        <v>7223599</v>
+      </c>
+      <c r="AO4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP4" t="n">
+        <v>-53308</v>
+      </c>
+      <c r="AQ4" t="n">
+        <v>6992461</v>
+      </c>
+      <c r="AR4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS4" t="n">
+        <v>2266620</v>
+      </c>
+      <c r="AT4" t="n">
+        <v>9259081</v>
+      </c>
+      <c r="AU4" t="n">
+        <v>0.3506017532717231</v>
+      </c>
+      <c r="AV4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW4" t="n">
+        <v>2572679.54</v>
+      </c>
+      <c r="AX4" t="n">
+        <v>71195.42</v>
+      </c>
+      <c r="AY4" t="n">
+        <v>31970.4</v>
+      </c>
+      <c r="AZ4" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA4" t="n">
+        <v>282915.31</v>
+      </c>
+      <c r="BB4" t="n">
+        <v>12253499.11</v>
+      </c>
+      <c r="BC4" t="n">
+        <v>542052.15</v>
+      </c>
+      <c r="BD4" t="n">
+        <v>-5045974.71</v>
+      </c>
+      <c r="BE4" t="n">
+        <v>10708337.22</v>
+      </c>
+      <c r="BF4" t="n">
+        <v>-8280.639999999999</v>
+      </c>
+      <c r="BG4" t="n">
+        <v>109498.55</v>
+      </c>
+      <c r="BH4" t="n">
+        <v>5364.2</v>
+      </c>
+      <c r="BI4" t="n">
+        <v>25210.9</v>
+      </c>
+      <c r="BJ4" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK4" t="n">
+        <v>4678.45</v>
+      </c>
+      <c r="BL4" t="n">
+        <v>1040030.86</v>
+      </c>
+      <c r="BM4" t="n">
+        <v>187899</v>
+      </c>
+      <c r="BN4" t="n">
+        <v>1364401.32</v>
+      </c>
+      <c r="BO4" t="n">
+        <v>84855.92</v>
+      </c>
+      <c r="BP4" t="n">
+        <v>6992460.84</v>
+      </c>
+      <c r="BQ4" t="n">
+        <v>2266619.14</v>
+      </c>
+      <c r="BR4" t="n">
+        <v>0</v>
+      </c>
+      <c r="BS4" t="n">
+        <v>0</v>
+      </c>
+      <c r="BT4" t="n">
+        <v>10708337.22</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>31st DAA, Ventura County Fair</t>
+          <t>50th DAA, Antelope Valley Fair</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>7154419</v>
+        <v>14498500</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>8182283</v>
       </c>
       <c r="D5" t="n">
-        <v>2157972</v>
+        <v>1519596</v>
       </c>
       <c r="E5" t="n">
-        <v>9312391</v>
+        <v>24200379</v>
       </c>
       <c r="F5" t="n">
         <v>40000</v>
       </c>
       <c r="G5" t="n">
-        <v>423882</v>
+        <v>5352376</v>
       </c>
       <c r="H5" t="n">
-        <v>1151398</v>
+        <v>803709</v>
       </c>
       <c r="I5" t="n">
-        <v>31000</v>
+        <v>165134</v>
       </c>
       <c r="J5" t="n">
-        <v>1705176</v>
+        <v>1391016</v>
       </c>
       <c r="K5" t="n">
-        <v>31508</v>
+        <v>38771</v>
       </c>
       <c r="L5" t="n">
-        <v>23320</v>
+        <v>0</v>
       </c>
       <c r="M5" t="n">
         <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>1604250</v>
+        <v>1119200</v>
       </c>
       <c r="O5" t="n">
-        <v>0</v>
+        <v>441073</v>
       </c>
       <c r="P5" t="n">
-        <v>383181</v>
+        <v>376612</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>200232</v>
       </c>
       <c r="R5" t="n">
-        <v>1739744</v>
+        <v>652777</v>
       </c>
       <c r="S5" t="n">
-        <v>-23552</v>
+        <v>227</v>
       </c>
       <c r="T5" t="n">
-        <v>60384</v>
+        <v>247078</v>
       </c>
       <c r="U5" t="n">
-        <v>6706409</v>
+        <v>5435829</v>
       </c>
       <c r="V5" t="n">
-        <v>1176558</v>
+        <v>690627</v>
       </c>
       <c r="W5" t="n">
-        <v>1626090</v>
+        <v>605702</v>
       </c>
       <c r="X5" t="n">
-        <v>300400</v>
+        <v>330118</v>
       </c>
       <c r="Y5" t="n">
-        <v>532440</v>
+        <v>1019575</v>
       </c>
       <c r="Z5" t="n">
-        <v>474222</v>
+        <v>161737</v>
       </c>
       <c r="AA5" t="n">
-        <v>0</v>
+        <v>54933</v>
       </c>
       <c r="AB5" t="n">
-        <v>144993</v>
+        <v>54715</v>
       </c>
       <c r="AC5" t="n">
-        <v>265699</v>
+        <v>91340</v>
       </c>
       <c r="AD5" t="n">
-        <v>45855</v>
+        <v>641</v>
       </c>
       <c r="AE5" t="n">
         <v>0</v>
       </c>
       <c r="AF5" t="n">
-        <v>865115</v>
+        <v>653744</v>
       </c>
       <c r="AG5" t="n">
-        <v>963243</v>
+        <v>1073796</v>
       </c>
       <c r="AH5" t="n">
-        <v>0</v>
+        <v>97804</v>
       </c>
       <c r="AI5" t="n">
-        <v>44471</v>
+        <v>58227</v>
       </c>
       <c r="AJ5" t="n">
-        <v>20631</v>
+        <v>2711</v>
       </c>
       <c r="AK5" t="n">
-        <v>226</v>
+        <v>6531</v>
       </c>
       <c r="AL5" t="n">
-        <v>758657</v>
+        <v>629052</v>
       </c>
       <c r="AM5" t="n">
-        <v>4999</v>
+        <v>0</v>
       </c>
       <c r="AN5" t="n">
-        <v>7223599</v>
+        <v>5531253</v>
       </c>
       <c r="AO5" t="n">
         <v>0</v>
       </c>
       <c r="AP5" t="n">
-        <v>-53308</v>
+        <v>5296952</v>
       </c>
       <c r="AQ5" t="n">
-        <v>6992461</v>
+        <v>28099092</v>
       </c>
       <c r="AR5" t="n">
-        <v>0</v>
+        <v>20756</v>
       </c>
       <c r="AS5" t="n">
-        <v>2266620</v>
+        <v>1377484</v>
       </c>
       <c r="AT5" t="n">
-        <v>9259081</v>
+        <v>29497332</v>
       </c>
       <c r="AU5" t="n">
-        <v>0.3506017532717231</v>
+        <v>0.2809929662206833</v>
       </c>
       <c r="AV5" t="n">
         <v>0</v>
       </c>
       <c r="AW5" t="n">
-        <v>2572679.54</v>
+        <v>1745914.34</v>
       </c>
       <c r="AX5" t="n">
-        <v>71195.42</v>
+        <v>132313.39</v>
       </c>
       <c r="AY5" t="n">
-        <v>31970.4</v>
+        <v>1982.73</v>
       </c>
       <c r="AZ5" t="n">
-        <v>0</v>
+        <v>104213.49</v>
       </c>
       <c r="BA5" t="n">
-        <v>282915.31</v>
+        <v>6245128.88</v>
       </c>
       <c r="BB5" t="n">
-        <v>12253499.11</v>
+        <v>24046143.33</v>
       </c>
       <c r="BC5" t="n">
-        <v>542052.15</v>
+        <v>1348100.98</v>
       </c>
       <c r="BD5" t="n">
-        <v>-5045974.71</v>
+        <v>-1139807.75</v>
       </c>
       <c r="BE5" t="n">
-        <v>10708337.22</v>
+        <v>32483989.38999999</v>
       </c>
       <c r="BF5" t="n">
-        <v>-8280.639999999999</v>
+        <v>0</v>
       </c>
       <c r="BG5" t="n">
-        <v>109498.55</v>
+        <v>374636.76</v>
       </c>
       <c r="BH5" t="n">
-        <v>5364.2</v>
+        <v>12039.55</v>
       </c>
       <c r="BI5" t="n">
-        <v>25210.9</v>
+        <v>0</v>
       </c>
       <c r="BJ5" t="n">
-        <v>0</v>
+        <v>4782</v>
       </c>
       <c r="BK5" t="n">
-        <v>4678.45</v>
+        <v>103466.75</v>
       </c>
       <c r="BL5" t="n">
-        <v>1040030.86</v>
+        <v>2287293.25</v>
       </c>
       <c r="BM5" t="n">
-        <v>187899</v>
+        <v>108764</v>
       </c>
       <c r="BN5" t="n">
-        <v>1364401.32</v>
+        <v>2890982.31</v>
       </c>
       <c r="BO5" t="n">
-        <v>84855.92</v>
+        <v>95675</v>
       </c>
       <c r="BP5" t="n">
-        <v>6992460.84</v>
+        <v>28099092</v>
       </c>
       <c r="BQ5" t="n">
-        <v>2266619.14</v>
+        <v>1377484</v>
       </c>
       <c r="BR5" t="n">
-        <v>0</v>
+        <v>20756</v>
       </c>
       <c r="BS5" t="n">
         <v>0</v>
       </c>
       <c r="BT5" t="n">
-        <v>10708337.22</v>
+        <v>32483989.31</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>50th DAA, Antelope Valley Fair</t>
+          <t>Solano County Fair</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>14498500</v>
+        <v>3558596</v>
       </c>
       <c r="C6" t="n">
-        <v>8182283</v>
+        <v>336015</v>
       </c>
       <c r="D6" t="n">
-        <v>1519596</v>
+        <v>651670</v>
       </c>
       <c r="E6" t="n">
-        <v>24200379</v>
+        <v>4546281</v>
       </c>
       <c r="F6" t="n">
         <v>40000</v>
       </c>
       <c r="G6" t="n">
-        <v>5352376</v>
+        <v>30000</v>
       </c>
       <c r="H6" t="n">
-        <v>803709</v>
+        <v>210802</v>
       </c>
       <c r="I6" t="n">
-        <v>165134</v>
+        <v>80900</v>
       </c>
       <c r="J6" t="n">
-        <v>1391016</v>
+        <v>139848</v>
       </c>
       <c r="K6" t="n">
-        <v>38771</v>
+        <v>18782</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>0</v>
+        <v>1635634</v>
       </c>
       <c r="N6" t="n">
-        <v>1119200</v>
+        <v>1013424</v>
       </c>
       <c r="O6" t="n">
-        <v>441073</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>376612</v>
+        <v>345639</v>
       </c>
       <c r="Q6" t="n">
-        <v>200232</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>652777</v>
+        <v>511221</v>
       </c>
       <c r="S6" t="n">
-        <v>227</v>
+        <v>21854</v>
       </c>
       <c r="T6" t="n">
-        <v>247078</v>
+        <v>486959</v>
       </c>
       <c r="U6" t="n">
-        <v>5435829</v>
+        <v>4465063</v>
       </c>
       <c r="V6" t="n">
-        <v>690627</v>
+        <v>477915</v>
       </c>
       <c r="W6" t="n">
-        <v>605702</v>
+        <v>1049590</v>
       </c>
       <c r="X6" t="n">
-        <v>330118</v>
+        <v>169597</v>
       </c>
       <c r="Y6" t="n">
-        <v>1019575</v>
+        <v>276086</v>
       </c>
       <c r="Z6" t="n">
-        <v>161737</v>
+        <v>155639</v>
       </c>
       <c r="AA6" t="n">
-        <v>54933</v>
+        <v>0</v>
       </c>
       <c r="AB6" t="n">
-        <v>54715</v>
+        <v>32442</v>
       </c>
       <c r="AC6" t="n">
-        <v>91340</v>
+        <v>270705</v>
       </c>
       <c r="AD6" t="n">
-        <v>641</v>
+        <v>0</v>
       </c>
       <c r="AE6" t="n">
-        <v>0</v>
+        <v>857362</v>
       </c>
       <c r="AF6" t="n">
-        <v>653744</v>
+        <v>526278</v>
       </c>
       <c r="AG6" t="n">
-        <v>1073796</v>
+        <v>287821</v>
       </c>
       <c r="AH6" t="n">
-        <v>97804</v>
+        <v>24274</v>
       </c>
       <c r="AI6" t="n">
-        <v>58227</v>
+        <v>5653</v>
       </c>
       <c r="AJ6" t="n">
-        <v>2711</v>
+        <v>14695</v>
       </c>
       <c r="AK6" t="n">
-        <v>6531</v>
+        <v>568</v>
       </c>
       <c r="AL6" t="n">
-        <v>629052</v>
+        <v>353239</v>
       </c>
       <c r="AM6" t="n">
-        <v>0</v>
+        <v>135790</v>
       </c>
       <c r="AN6" t="n">
-        <v>5531253</v>
+        <v>4637654</v>
       </c>
       <c r="AO6" t="n">
-        <v>0</v>
+        <v>-2085</v>
       </c>
       <c r="AP6" t="n">
-        <v>5296952</v>
+        <v>-104676</v>
       </c>
       <c r="AQ6" t="n">
-        <v>28099092</v>
+        <v>3290946</v>
       </c>
       <c r="AR6" t="n">
-        <v>20756</v>
+        <v>357520</v>
       </c>
       <c r="AS6" t="n">
-        <v>1377484</v>
+        <v>793138</v>
       </c>
       <c r="AT6" t="n">
-        <v>29497332</v>
+        <v>4441604</v>
       </c>
       <c r="AU6" t="n">
-        <v>0.2809929662206833</v>
+        <v>0.1851216560487254</v>
       </c>
       <c r="AV6" t="n">
         <v>0</v>
       </c>
       <c r="AW6" t="n">
-        <v>1745914.34</v>
+        <v>1147200</v>
       </c>
       <c r="AX6" t="n">
-        <v>132313.39</v>
+        <v>188653</v>
       </c>
       <c r="AY6" t="n">
-        <v>1982.73</v>
+        <v>598930</v>
       </c>
       <c r="AZ6" t="n">
-        <v>104213.49</v>
+        <v>638311</v>
       </c>
       <c r="BA6" t="n">
-        <v>6245128.88</v>
+        <v>167085</v>
       </c>
       <c r="BB6" t="n">
-        <v>24046143.33</v>
+        <v>9208372</v>
       </c>
       <c r="BC6" t="n">
-        <v>1348100.98</v>
+        <v>722591</v>
       </c>
       <c r="BD6" t="n">
-        <v>-1139807.75</v>
+        <v>-7445414</v>
       </c>
       <c r="BE6" t="n">
-        <v>32483989.38999999</v>
+        <v>5225728</v>
       </c>
       <c r="BF6" t="n">
         <v>0</v>
       </c>
       <c r="BG6" t="n">
-        <v>374636.76</v>
+        <v>65483</v>
       </c>
       <c r="BH6" t="n">
-        <v>12039.55</v>
+        <v>0</v>
       </c>
       <c r="BI6" t="n">
         <v>0</v>
       </c>
       <c r="BJ6" t="n">
-        <v>4782</v>
+        <v>28580</v>
       </c>
       <c r="BK6" t="n">
-        <v>103466.75</v>
+        <v>14953</v>
       </c>
       <c r="BL6" t="n">
-        <v>2287293.25</v>
+        <v>593426</v>
       </c>
       <c r="BM6" t="n">
-        <v>108764</v>
+        <v>81682</v>
       </c>
       <c r="BN6" t="n">
-        <v>2890982.31</v>
+        <v>784124</v>
       </c>
       <c r="BO6" t="n">
-        <v>95675</v>
+        <v>0</v>
       </c>
       <c r="BP6" t="n">
-        <v>28099092</v>
+        <v>3290946</v>
       </c>
       <c r="BQ6" t="n">
-        <v>1377484</v>
+        <v>793138</v>
       </c>
       <c r="BR6" t="n">
-        <v>20756</v>
+        <v>357520</v>
       </c>
       <c r="BS6" t="n">
         <v>0</v>
       </c>
       <c r="BT6" t="n">
-        <v>32483989.31</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>Solano County Fair</t>
-        </is>
-      </c>
-      <c r="B7" t="n">
-        <v>3558596</v>
-      </c>
-      <c r="C7" t="n">
-        <v>336015</v>
-      </c>
-      <c r="D7" t="n">
-        <v>651670</v>
-      </c>
-      <c r="E7" t="n">
-        <v>4546281</v>
-      </c>
-      <c r="F7" t="n">
-        <v>40000</v>
-      </c>
-      <c r="G7" t="n">
-        <v>30000</v>
-      </c>
-      <c r="H7" t="n">
-        <v>210802</v>
-      </c>
-      <c r="I7" t="n">
-        <v>80900</v>
-      </c>
-      <c r="J7" t="n">
-        <v>139848</v>
-      </c>
-      <c r="K7" t="n">
-        <v>18782</v>
-      </c>
-      <c r="L7" t="n">
-        <v>0</v>
-      </c>
-      <c r="M7" t="n">
-        <v>1635634</v>
-      </c>
-      <c r="N7" t="n">
-        <v>1013424</v>
-      </c>
-      <c r="O7" t="n">
-        <v>0</v>
-      </c>
-      <c r="P7" t="n">
-        <v>345639</v>
-      </c>
-      <c r="Q7" t="n">
-        <v>0</v>
-      </c>
-      <c r="R7" t="n">
-        <v>511221</v>
-      </c>
-      <c r="S7" t="n">
-        <v>21854</v>
-      </c>
-      <c r="T7" t="n">
-        <v>486959</v>
-      </c>
-      <c r="U7" t="n">
-        <v>4465063</v>
-      </c>
-      <c r="V7" t="n">
-        <v>477915</v>
-      </c>
-      <c r="W7" t="n">
-        <v>1049590</v>
-      </c>
-      <c r="X7" t="n">
-        <v>169597</v>
-      </c>
-      <c r="Y7" t="n">
-        <v>276086</v>
-      </c>
-      <c r="Z7" t="n">
-        <v>155639</v>
-      </c>
-      <c r="AA7" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB7" t="n">
-        <v>32442</v>
-      </c>
-      <c r="AC7" t="n">
-        <v>270705</v>
-      </c>
-      <c r="AD7" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE7" t="n">
-        <v>857362</v>
-      </c>
-      <c r="AF7" t="n">
-        <v>526278</v>
-      </c>
-      <c r="AG7" t="n">
-        <v>287821</v>
-      </c>
-      <c r="AH7" t="n">
-        <v>24274</v>
-      </c>
-      <c r="AI7" t="n">
-        <v>5653</v>
-      </c>
-      <c r="AJ7" t="n">
-        <v>14695</v>
-      </c>
-      <c r="AK7" t="n">
-        <v>568</v>
-      </c>
-      <c r="AL7" t="n">
-        <v>353239</v>
-      </c>
-      <c r="AM7" t="n">
-        <v>135790</v>
-      </c>
-      <c r="AN7" t="n">
-        <v>4637654</v>
-      </c>
-      <c r="AO7" t="n">
-        <v>-2085</v>
-      </c>
-      <c r="AP7" t="n">
-        <v>-104676</v>
-      </c>
-      <c r="AQ7" t="n">
-        <v>3290946</v>
-      </c>
-      <c r="AR7" t="n">
-        <v>357520</v>
-      </c>
-      <c r="AS7" t="n">
-        <v>793138</v>
-      </c>
-      <c r="AT7" t="n">
-        <v>4441604</v>
-      </c>
-      <c r="AU7" t="n">
-        <v>0.1851216560487254</v>
-      </c>
-      <c r="AV7" t="n">
-        <v>0</v>
-      </c>
-      <c r="AW7" t="n">
-        <v>1147200</v>
-      </c>
-      <c r="AX7" t="n">
-        <v>188653</v>
-      </c>
-      <c r="AY7" t="n">
-        <v>598930</v>
-      </c>
-      <c r="AZ7" t="n">
-        <v>638311</v>
-      </c>
-      <c r="BA7" t="n">
-        <v>167085</v>
-      </c>
-      <c r="BB7" t="n">
-        <v>9208372</v>
-      </c>
-      <c r="BC7" t="n">
-        <v>722591</v>
-      </c>
-      <c r="BD7" t="n">
-        <v>-7445414</v>
-      </c>
-      <c r="BE7" t="n">
-        <v>5225728</v>
-      </c>
-      <c r="BF7" t="n">
-        <v>0</v>
-      </c>
-      <c r="BG7" t="n">
-        <v>65483</v>
-      </c>
-      <c r="BH7" t="n">
-        <v>0</v>
-      </c>
-      <c r="BI7" t="n">
-        <v>0</v>
-      </c>
-      <c r="BJ7" t="n">
-        <v>28580</v>
-      </c>
-      <c r="BK7" t="n">
-        <v>14953</v>
-      </c>
-      <c r="BL7" t="n">
-        <v>593426</v>
-      </c>
-      <c r="BM7" t="n">
-        <v>81682</v>
-      </c>
-      <c r="BN7" t="n">
-        <v>784124</v>
-      </c>
-      <c r="BO7" t="n">
-        <v>0</v>
-      </c>
-      <c r="BP7" t="n">
-        <v>3290946</v>
-      </c>
-      <c r="BQ7" t="n">
-        <v>793138</v>
-      </c>
-      <c r="BR7" t="n">
-        <v>357520</v>
-      </c>
-      <c r="BS7" t="n">
-        <v>0</v>
-      </c>
-      <c r="BT7" t="n">
         <v>5225728</v>
       </c>
     </row>
@@ -18885,7 +18871,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P199"/>
+  <dimension ref="A1:O96"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C16" activePane="bottomRight" state="frozen"/>
@@ -22746,118 +22732,9 @@
         <v>1175623.86</v>
       </c>
     </row>
-    <row r="90"/>
-    <row r="91"/>
-    <row r="92"/>
-    <row r="93"/>
-    <row r="94"/>
-    <row r="95"/>
     <row r="96" ht="12.75" customHeight="1">
       <c r="A96" s="17" t="n"/>
     </row>
-    <row r="97"/>
-    <row r="98"/>
-    <row r="99"/>
-    <row r="100"/>
-    <row r="101"/>
-    <row r="102"/>
-    <row r="103"/>
-    <row r="104"/>
-    <row r="105"/>
-    <row r="106"/>
-    <row r="107"/>
-    <row r="108"/>
-    <row r="109"/>
-    <row r="110"/>
-    <row r="111"/>
-    <row r="112"/>
-    <row r="113"/>
-    <row r="114"/>
-    <row r="115"/>
-    <row r="116"/>
-    <row r="117"/>
-    <row r="118"/>
-    <row r="119"/>
-    <row r="120"/>
-    <row r="121"/>
-    <row r="122"/>
-    <row r="123"/>
-    <row r="124"/>
-    <row r="125"/>
-    <row r="126"/>
-    <row r="127"/>
-    <row r="128"/>
-    <row r="129"/>
-    <row r="130"/>
-    <row r="131"/>
-    <row r="132"/>
-    <row r="133"/>
-    <row r="134"/>
-    <row r="135"/>
-    <row r="136"/>
-    <row r="137"/>
-    <row r="138"/>
-    <row r="139"/>
-    <row r="140"/>
-    <row r="141"/>
-    <row r="142"/>
-    <row r="143"/>
-    <row r="144"/>
-    <row r="145"/>
-    <row r="146"/>
-    <row r="147"/>
-    <row r="148"/>
-    <row r="149"/>
-    <row r="150"/>
-    <row r="151"/>
-    <row r="152"/>
-    <row r="153"/>
-    <row r="154"/>
-    <row r="155"/>
-    <row r="156"/>
-    <row r="157"/>
-    <row r="158"/>
-    <row r="159"/>
-    <row r="160"/>
-    <row r="161"/>
-    <row r="162"/>
-    <row r="163"/>
-    <row r="164"/>
-    <row r="165"/>
-    <row r="166"/>
-    <row r="167"/>
-    <row r="168"/>
-    <row r="169"/>
-    <row r="170"/>
-    <row r="171"/>
-    <row r="172"/>
-    <row r="173"/>
-    <row r="174"/>
-    <row r="175"/>
-    <row r="176"/>
-    <row r="177"/>
-    <row r="178"/>
-    <row r="179"/>
-    <row r="180"/>
-    <row r="181"/>
-    <row r="182"/>
-    <row r="183"/>
-    <row r="184"/>
-    <row r="185"/>
-    <row r="186"/>
-    <row r="187"/>
-    <row r="188"/>
-    <row r="189"/>
-    <row r="190"/>
-    <row r="191"/>
-    <row r="192"/>
-    <row r="193"/>
-    <row r="194"/>
-    <row r="195"/>
-    <row r="196"/>
-    <row r="197"/>
-    <row r="198"/>
-    <row r="199"/>
   </sheetData>
   <mergeCells count="15">
     <mergeCell ref="A57:B58"/>
@@ -22903,7 +22780,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:W199"/>
+  <dimension ref="A1:V96"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C28" activePane="bottomRight" state="frozen"/>
@@ -28326,118 +28203,9 @@
       </c>
       <c r="V89" s="119" t="n"/>
     </row>
-    <row r="90"/>
-    <row r="91"/>
-    <row r="92"/>
-    <row r="93"/>
-    <row r="94"/>
-    <row r="95"/>
     <row r="96" ht="12.75" customHeight="1">
       <c r="A96" s="17" t="n"/>
     </row>
-    <row r="97"/>
-    <row r="98"/>
-    <row r="99"/>
-    <row r="100"/>
-    <row r="101"/>
-    <row r="102"/>
-    <row r="103"/>
-    <row r="104"/>
-    <row r="105"/>
-    <row r="106"/>
-    <row r="107"/>
-    <row r="108"/>
-    <row r="109"/>
-    <row r="110"/>
-    <row r="111"/>
-    <row r="112"/>
-    <row r="113"/>
-    <row r="114"/>
-    <row r="115"/>
-    <row r="116"/>
-    <row r="117"/>
-    <row r="118"/>
-    <row r="119"/>
-    <row r="120"/>
-    <row r="121"/>
-    <row r="122"/>
-    <row r="123"/>
-    <row r="124"/>
-    <row r="125"/>
-    <row r="126"/>
-    <row r="127"/>
-    <row r="128"/>
-    <row r="129"/>
-    <row r="130"/>
-    <row r="131"/>
-    <row r="132"/>
-    <row r="133"/>
-    <row r="134"/>
-    <row r="135"/>
-    <row r="136"/>
-    <row r="137"/>
-    <row r="138"/>
-    <row r="139"/>
-    <row r="140"/>
-    <row r="141"/>
-    <row r="142"/>
-    <row r="143"/>
-    <row r="144"/>
-    <row r="145"/>
-    <row r="146"/>
-    <row r="147"/>
-    <row r="148"/>
-    <row r="149"/>
-    <row r="150"/>
-    <row r="151"/>
-    <row r="152"/>
-    <row r="153"/>
-    <row r="154"/>
-    <row r="155"/>
-    <row r="156"/>
-    <row r="157"/>
-    <row r="158"/>
-    <row r="159"/>
-    <row r="160"/>
-    <row r="161"/>
-    <row r="162"/>
-    <row r="163"/>
-    <row r="164"/>
-    <row r="165"/>
-    <row r="166"/>
-    <row r="167"/>
-    <row r="168"/>
-    <row r="169"/>
-    <row r="170"/>
-    <row r="171"/>
-    <row r="172"/>
-    <row r="173"/>
-    <row r="174"/>
-    <row r="175"/>
-    <row r="176"/>
-    <row r="177"/>
-    <row r="178"/>
-    <row r="179"/>
-    <row r="180"/>
-    <row r="181"/>
-    <row r="182"/>
-    <row r="183"/>
-    <row r="184"/>
-    <row r="185"/>
-    <row r="186"/>
-    <row r="187"/>
-    <row r="188"/>
-    <row r="189"/>
-    <row r="190"/>
-    <row r="191"/>
-    <row r="192"/>
-    <row r="193"/>
-    <row r="194"/>
-    <row r="195"/>
-    <row r="196"/>
-    <row r="197"/>
-    <row r="198"/>
-    <row r="199"/>
   </sheetData>
   <mergeCells count="22">
     <mergeCell ref="L2:L3"/>
@@ -28487,7 +28255,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V199"/>
+  <dimension ref="A1:U99"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="O34" activePane="bottomRight" state="frozen"/>
@@ -33935,116 +33703,9 @@
         <v>2252453.25</v>
       </c>
     </row>
-    <row r="92"/>
-    <row r="93"/>
-    <row r="94"/>
-    <row r="95"/>
-    <row r="96"/>
-    <row r="97"/>
-    <row r="98"/>
     <row r="99">
       <c r="A99" s="16" t="n"/>
     </row>
-    <row r="100"/>
-    <row r="101"/>
-    <row r="102"/>
-    <row r="103"/>
-    <row r="104"/>
-    <row r="105"/>
-    <row r="106"/>
-    <row r="107"/>
-    <row r="108"/>
-    <row r="109"/>
-    <row r="110"/>
-    <row r="111"/>
-    <row r="112"/>
-    <row r="113"/>
-    <row r="114"/>
-    <row r="115"/>
-    <row r="116"/>
-    <row r="117"/>
-    <row r="118"/>
-    <row r="119"/>
-    <row r="120"/>
-    <row r="121"/>
-    <row r="122"/>
-    <row r="123"/>
-    <row r="124"/>
-    <row r="125"/>
-    <row r="126"/>
-    <row r="127"/>
-    <row r="128"/>
-    <row r="129"/>
-    <row r="130"/>
-    <row r="131"/>
-    <row r="132"/>
-    <row r="133"/>
-    <row r="134"/>
-    <row r="135"/>
-    <row r="136"/>
-    <row r="137"/>
-    <row r="138"/>
-    <row r="139"/>
-    <row r="140"/>
-    <row r="141"/>
-    <row r="142"/>
-    <row r="143"/>
-    <row r="144"/>
-    <row r="145"/>
-    <row r="146"/>
-    <row r="147"/>
-    <row r="148"/>
-    <row r="149"/>
-    <row r="150"/>
-    <row r="151"/>
-    <row r="152"/>
-    <row r="153"/>
-    <row r="154"/>
-    <row r="155"/>
-    <row r="156"/>
-    <row r="157"/>
-    <row r="158"/>
-    <row r="159"/>
-    <row r="160"/>
-    <row r="161"/>
-    <row r="162"/>
-    <row r="163"/>
-    <row r="164"/>
-    <row r="165"/>
-    <row r="166"/>
-    <row r="167"/>
-    <row r="168"/>
-    <row r="169"/>
-    <row r="170"/>
-    <row r="171"/>
-    <row r="172"/>
-    <row r="173"/>
-    <row r="174"/>
-    <row r="175"/>
-    <row r="176"/>
-    <row r="177"/>
-    <row r="178"/>
-    <row r="179"/>
-    <row r="180"/>
-    <row r="181"/>
-    <row r="182"/>
-    <row r="183"/>
-    <row r="184"/>
-    <row r="185"/>
-    <row r="186"/>
-    <row r="187"/>
-    <row r="188"/>
-    <row r="189"/>
-    <row r="190"/>
-    <row r="191"/>
-    <row r="192"/>
-    <row r="193"/>
-    <row r="194"/>
-    <row r="195"/>
-    <row r="196"/>
-    <row r="197"/>
-    <row r="198"/>
-    <row r="199"/>
   </sheetData>
   <mergeCells count="21">
     <mergeCell ref="A1:B3"/>
@@ -34096,7 +33757,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L199"/>
+  <dimension ref="A1:K97"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C16" activePane="bottomRight" state="frozen"/>
@@ -37054,116 +36715,9 @@
         <v>5890950</v>
       </c>
     </row>
-    <row r="92"/>
-    <row r="93"/>
-    <row r="94"/>
-    <row r="95"/>
-    <row r="96"/>
     <row r="97">
       <c r="A97" s="16" t="n"/>
     </row>
-    <row r="98"/>
-    <row r="99"/>
-    <row r="100"/>
-    <row r="101"/>
-    <row r="102"/>
-    <row r="103"/>
-    <row r="104"/>
-    <row r="105"/>
-    <row r="106"/>
-    <row r="107"/>
-    <row r="108"/>
-    <row r="109"/>
-    <row r="110"/>
-    <row r="111"/>
-    <row r="112"/>
-    <row r="113"/>
-    <row r="114"/>
-    <row r="115"/>
-    <row r="116"/>
-    <row r="117"/>
-    <row r="118"/>
-    <row r="119"/>
-    <row r="120"/>
-    <row r="121"/>
-    <row r="122"/>
-    <row r="123"/>
-    <row r="124"/>
-    <row r="125"/>
-    <row r="126"/>
-    <row r="127"/>
-    <row r="128"/>
-    <row r="129"/>
-    <row r="130"/>
-    <row r="131"/>
-    <row r="132"/>
-    <row r="133"/>
-    <row r="134"/>
-    <row r="135"/>
-    <row r="136"/>
-    <row r="137"/>
-    <row r="138"/>
-    <row r="139"/>
-    <row r="140"/>
-    <row r="141"/>
-    <row r="142"/>
-    <row r="143"/>
-    <row r="144"/>
-    <row r="145"/>
-    <row r="146"/>
-    <row r="147"/>
-    <row r="148"/>
-    <row r="149"/>
-    <row r="150"/>
-    <row r="151"/>
-    <row r="152"/>
-    <row r="153"/>
-    <row r="154"/>
-    <row r="155"/>
-    <row r="156"/>
-    <row r="157"/>
-    <row r="158"/>
-    <row r="159"/>
-    <row r="160"/>
-    <row r="161"/>
-    <row r="162"/>
-    <row r="163"/>
-    <row r="164"/>
-    <row r="165"/>
-    <row r="166"/>
-    <row r="167"/>
-    <row r="168"/>
-    <row r="169"/>
-    <row r="170"/>
-    <row r="171"/>
-    <row r="172"/>
-    <row r="173"/>
-    <row r="174"/>
-    <row r="175"/>
-    <row r="176"/>
-    <row r="177"/>
-    <row r="178"/>
-    <row r="179"/>
-    <row r="180"/>
-    <row r="181"/>
-    <row r="182"/>
-    <row r="183"/>
-    <row r="184"/>
-    <row r="185"/>
-    <row r="186"/>
-    <row r="187"/>
-    <row r="188"/>
-    <row r="189"/>
-    <row r="190"/>
-    <row r="191"/>
-    <row r="192"/>
-    <row r="193"/>
-    <row r="194"/>
-    <row r="195"/>
-    <row r="196"/>
-    <row r="197"/>
-    <row r="198"/>
-    <row r="199"/>
   </sheetData>
   <mergeCells count="11">
     <mergeCell ref="A59:B60"/>
@@ -37202,7 +36756,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J199"/>
+  <dimension ref="A1:H94"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
       <pane xSplit="2" ySplit="4" topLeftCell="C47" activePane="bottomRight" state="frozen"/>
@@ -39180,118 +38734,9 @@
     <row r="89">
       <c r="A89" s="15" t="n"/>
     </row>
-    <row r="90"/>
-    <row r="91"/>
-    <row r="92"/>
-    <row r="93"/>
     <row r="94">
       <c r="A94" s="16" t="n"/>
     </row>
-    <row r="95"/>
-    <row r="96"/>
-    <row r="97"/>
-    <row r="98"/>
-    <row r="99"/>
-    <row r="100"/>
-    <row r="101"/>
-    <row r="102"/>
-    <row r="103"/>
-    <row r="104"/>
-    <row r="105"/>
-    <row r="106"/>
-    <row r="107"/>
-    <row r="108"/>
-    <row r="109"/>
-    <row r="110"/>
-    <row r="111"/>
-    <row r="112"/>
-    <row r="113"/>
-    <row r="114"/>
-    <row r="115"/>
-    <row r="116"/>
-    <row r="117"/>
-    <row r="118"/>
-    <row r="119"/>
-    <row r="120"/>
-    <row r="121"/>
-    <row r="122"/>
-    <row r="123"/>
-    <row r="124"/>
-    <row r="125"/>
-    <row r="126"/>
-    <row r="127"/>
-    <row r="128"/>
-    <row r="129"/>
-    <row r="130"/>
-    <row r="131"/>
-    <row r="132"/>
-    <row r="133"/>
-    <row r="134"/>
-    <row r="135"/>
-    <row r="136"/>
-    <row r="137"/>
-    <row r="138"/>
-    <row r="139"/>
-    <row r="140"/>
-    <row r="141"/>
-    <row r="142"/>
-    <row r="143"/>
-    <row r="144"/>
-    <row r="145"/>
-    <row r="146"/>
-    <row r="147"/>
-    <row r="148"/>
-    <row r="149"/>
-    <row r="150"/>
-    <row r="151"/>
-    <row r="152"/>
-    <row r="153"/>
-    <row r="154"/>
-    <row r="155"/>
-    <row r="156"/>
-    <row r="157"/>
-    <row r="158"/>
-    <row r="159"/>
-    <row r="160"/>
-    <row r="161"/>
-    <row r="162"/>
-    <row r="163"/>
-    <row r="164"/>
-    <row r="165"/>
-    <row r="166"/>
-    <row r="167"/>
-    <row r="168"/>
-    <row r="169"/>
-    <row r="170"/>
-    <row r="171"/>
-    <row r="172"/>
-    <row r="173"/>
-    <row r="174"/>
-    <row r="175"/>
-    <row r="176"/>
-    <row r="177"/>
-    <row r="178"/>
-    <row r="179"/>
-    <row r="180"/>
-    <row r="181"/>
-    <row r="182"/>
-    <row r="183"/>
-    <row r="184"/>
-    <row r="185"/>
-    <row r="186"/>
-    <row r="187"/>
-    <row r="188"/>
-    <row r="189"/>
-    <row r="190"/>
-    <row r="191"/>
-    <row r="192"/>
-    <row r="193"/>
-    <row r="194"/>
-    <row r="195"/>
-    <row r="196"/>
-    <row r="197"/>
-    <row r="198"/>
-    <row r="199"/>
   </sheetData>
   <mergeCells count="8">
     <mergeCell ref="A56:B57"/>
@@ -39327,7 +38772,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P199"/>
+  <dimension ref="A1:P96"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="2" ySplit="4" topLeftCell="C5" activePane="bottomRight" state="frozen"/>
@@ -41501,120 +40946,12 @@
         <v>15930162</v>
       </c>
     </row>
-    <row r="90"/>
     <row r="91">
       <c r="A91" s="15" t="n"/>
     </row>
-    <row r="92"/>
-    <row r="93"/>
-    <row r="94"/>
-    <row r="95"/>
     <row r="96">
       <c r="A96" s="16" t="n"/>
     </row>
-    <row r="97"/>
-    <row r="98"/>
-    <row r="99"/>
-    <row r="100"/>
-    <row r="101"/>
-    <row r="102"/>
-    <row r="103"/>
-    <row r="104"/>
-    <row r="105"/>
-    <row r="106"/>
-    <row r="107"/>
-    <row r="108"/>
-    <row r="109"/>
-    <row r="110"/>
-    <row r="111"/>
-    <row r="112"/>
-    <row r="113"/>
-    <row r="114"/>
-    <row r="115"/>
-    <row r="116"/>
-    <row r="117"/>
-    <row r="118"/>
-    <row r="119"/>
-    <row r="120"/>
-    <row r="121"/>
-    <row r="122"/>
-    <row r="123"/>
-    <row r="124"/>
-    <row r="125"/>
-    <row r="126"/>
-    <row r="127"/>
-    <row r="128"/>
-    <row r="129"/>
-    <row r="130"/>
-    <row r="131"/>
-    <row r="132"/>
-    <row r="133"/>
-    <row r="134"/>
-    <row r="135"/>
-    <row r="136"/>
-    <row r="137"/>
-    <row r="138"/>
-    <row r="139"/>
-    <row r="140"/>
-    <row r="141"/>
-    <row r="142"/>
-    <row r="143"/>
-    <row r="144"/>
-    <row r="145"/>
-    <row r="146"/>
-    <row r="147"/>
-    <row r="148"/>
-    <row r="149"/>
-    <row r="150"/>
-    <row r="151"/>
-    <row r="152"/>
-    <row r="153"/>
-    <row r="154"/>
-    <row r="155"/>
-    <row r="156"/>
-    <row r="157"/>
-    <row r="158"/>
-    <row r="159"/>
-    <row r="160"/>
-    <row r="161"/>
-    <row r="162"/>
-    <row r="163"/>
-    <row r="164"/>
-    <row r="165"/>
-    <row r="166"/>
-    <row r="167"/>
-    <row r="168"/>
-    <row r="169"/>
-    <row r="170"/>
-    <row r="171"/>
-    <row r="172"/>
-    <row r="173"/>
-    <row r="174"/>
-    <row r="175"/>
-    <row r="176"/>
-    <row r="177"/>
-    <row r="178"/>
-    <row r="179"/>
-    <row r="180"/>
-    <row r="181"/>
-    <row r="182"/>
-    <row r="183"/>
-    <row r="184"/>
-    <row r="185"/>
-    <row r="186"/>
-    <row r="187"/>
-    <row r="188"/>
-    <row r="189"/>
-    <row r="190"/>
-    <row r="191"/>
-    <row r="192"/>
-    <row r="193"/>
-    <row r="194"/>
-    <row r="195"/>
-    <row r="196"/>
-    <row r="197"/>
-    <row r="198"/>
-    <row r="199"/>
   </sheetData>
   <mergeCells count="8">
     <mergeCell ref="A57:B58"/>
@@ -41650,7 +40987,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J199"/>
+  <dimension ref="A1:H96"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
@@ -43332,119 +42669,12 @@
     <row r="90">
       <c r="A90" s="15" t="n"/>
     </row>
-    <row r="91"/>
     <row r="92">
       <c r="E92" s="37" t="n"/>
     </row>
-    <row r="93"/>
-    <row r="94"/>
-    <row r="95"/>
     <row r="96">
       <c r="A96" s="16" t="n"/>
     </row>
-    <row r="97"/>
-    <row r="98"/>
-    <row r="99"/>
-    <row r="100"/>
-    <row r="101"/>
-    <row r="102"/>
-    <row r="103"/>
-    <row r="104"/>
-    <row r="105"/>
-    <row r="106"/>
-    <row r="107"/>
-    <row r="108"/>
-    <row r="109"/>
-    <row r="110"/>
-    <row r="111"/>
-    <row r="112"/>
-    <row r="113"/>
-    <row r="114"/>
-    <row r="115"/>
-    <row r="116"/>
-    <row r="117"/>
-    <row r="118"/>
-    <row r="119"/>
-    <row r="120"/>
-    <row r="121"/>
-    <row r="122"/>
-    <row r="123"/>
-    <row r="124"/>
-    <row r="125"/>
-    <row r="126"/>
-    <row r="127"/>
-    <row r="128"/>
-    <row r="129"/>
-    <row r="130"/>
-    <row r="131"/>
-    <row r="132"/>
-    <row r="133"/>
-    <row r="134"/>
-    <row r="135"/>
-    <row r="136"/>
-    <row r="137"/>
-    <row r="138"/>
-    <row r="139"/>
-    <row r="140"/>
-    <row r="141"/>
-    <row r="142"/>
-    <row r="143"/>
-    <row r="144"/>
-    <row r="145"/>
-    <row r="146"/>
-    <row r="147"/>
-    <row r="148"/>
-    <row r="149"/>
-    <row r="150"/>
-    <row r="151"/>
-    <row r="152"/>
-    <row r="153"/>
-    <row r="154"/>
-    <row r="155"/>
-    <row r="156"/>
-    <row r="157"/>
-    <row r="158"/>
-    <row r="159"/>
-    <row r="160"/>
-    <row r="161"/>
-    <row r="162"/>
-    <row r="163"/>
-    <row r="164"/>
-    <row r="165"/>
-    <row r="166"/>
-    <row r="167"/>
-    <row r="168"/>
-    <row r="169"/>
-    <row r="170"/>
-    <row r="171"/>
-    <row r="172"/>
-    <row r="173"/>
-    <row r="174"/>
-    <row r="175"/>
-    <row r="176"/>
-    <row r="177"/>
-    <row r="178"/>
-    <row r="179"/>
-    <row r="180"/>
-    <row r="181"/>
-    <row r="182"/>
-    <row r="183"/>
-    <row r="184"/>
-    <row r="185"/>
-    <row r="186"/>
-    <row r="187"/>
-    <row r="188"/>
-    <row r="189"/>
-    <row r="190"/>
-    <row r="191"/>
-    <row r="192"/>
-    <row r="193"/>
-    <row r="194"/>
-    <row r="195"/>
-    <row r="196"/>
-    <row r="197"/>
-    <row r="198"/>
-    <row r="199"/>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="A89:F89"/>
